--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H2">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I2">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J2">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N2">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O2">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P2">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q2">
-        <v>20.5656028126414</v>
+        <v>22.2769814661445</v>
       </c>
       <c r="R2">
-        <v>20.5656028126414</v>
+        <v>89.10792586457801</v>
       </c>
       <c r="S2">
-        <v>0.06205489240456257</v>
+        <v>0.05958107165993521</v>
       </c>
       <c r="T2">
-        <v>0.06205489240456257</v>
+        <v>0.03830059326538254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H3">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I3">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J3">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P3">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q3">
-        <v>18.07078661160208</v>
+        <v>21.57233712086866</v>
       </c>
       <c r="R3">
-        <v>18.07078661160208</v>
+        <v>129.434022725212</v>
       </c>
       <c r="S3">
-        <v>0.05452700458454247</v>
+        <v>0.05769645972117446</v>
       </c>
       <c r="T3">
-        <v>0.05452700458454247</v>
+        <v>0.05563365784806443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H4">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I4">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J4">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N4">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O4">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P4">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q4">
-        <v>11.30555126912552</v>
+        <v>0.1180012202663333</v>
       </c>
       <c r="R4">
-        <v>11.30555126912552</v>
+        <v>0.7080073215980001</v>
       </c>
       <c r="S4">
-        <v>0.034113503696989</v>
+        <v>0.0003156010688132517</v>
       </c>
       <c r="T4">
-        <v>0.034113503696989</v>
+        <v>0.0003043174912930772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H5">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I5">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J5">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N5">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O5">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P5">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q5">
-        <v>20.14206839157889</v>
+        <v>0.5097814004756668</v>
       </c>
       <c r="R5">
-        <v>20.14206839157889</v>
+        <v>3.058688402854</v>
       </c>
       <c r="S5">
-        <v>0.0607769146487874</v>
+        <v>0.001363439755013612</v>
       </c>
       <c r="T5">
-        <v>0.0607769146487874</v>
+        <v>0.001314693157837519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.22429095444579</v>
+        <v>7.157807</v>
       </c>
       <c r="H6">
-        <v>3.22429095444579</v>
+        <v>14.315614</v>
       </c>
       <c r="I6">
-        <v>0.1031660737058492</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J6">
-        <v>0.1031660737058492</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N6">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O6">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P6">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q6">
-        <v>10.03286171154065</v>
+        <v>12.62461311341367</v>
       </c>
       <c r="R6">
-        <v>10.03286171154065</v>
+        <v>75.747678680482</v>
       </c>
       <c r="S6">
-        <v>0.03027327522035064</v>
+        <v>0.03376525584188311</v>
       </c>
       <c r="T6">
-        <v>0.03027327522035064</v>
+        <v>0.03255805815014823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.22429095444579</v>
+        <v>7.157807</v>
       </c>
       <c r="H7">
-        <v>3.22429095444579</v>
+        <v>14.315614</v>
       </c>
       <c r="I7">
-        <v>0.1031660737058492</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J7">
-        <v>0.1031660737058492</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N7">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O7">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P7">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q7">
-        <v>8.815773830928999</v>
+        <v>21.8365329702065</v>
       </c>
       <c r="R7">
-        <v>8.815773830928999</v>
+        <v>87.34613188082601</v>
       </c>
       <c r="S7">
-        <v>0.02660081989938003</v>
+        <v>0.05840306675658352</v>
       </c>
       <c r="T7">
-        <v>0.02660081989938003</v>
+        <v>0.03754333453520366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H8">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J8">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N8">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O8">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P8">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q8">
-        <v>5.515376013493127</v>
+        <v>11.58423170509517</v>
       </c>
       <c r="R8">
-        <v>5.515376013493127</v>
+        <v>69.505390230571</v>
       </c>
       <c r="S8">
-        <v>0.01664216061187572</v>
+        <v>0.0309826957658291</v>
       </c>
       <c r="T8">
-        <v>0.01664216061187572</v>
+        <v>0.02987498199675888</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H9">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J9">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N9">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O9">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P9">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q9">
-        <v>9.826241836825099</v>
+        <v>11.21781027687044</v>
       </c>
       <c r="R9">
-        <v>9.826241836825099</v>
+        <v>100.960292491834</v>
       </c>
       <c r="S9">
-        <v>0.02964981797424278</v>
+        <v>0.03000268052426812</v>
       </c>
       <c r="T9">
-        <v>0.02964981797424278</v>
+        <v>0.04339500735950723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.41332787820737</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H10">
-        <v>1.41332787820737</v>
+        <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.04522156657501004</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J10">
-        <v>0.04522156657501004</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N10">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O10">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P10">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q10">
-        <v>4.397780273386338</v>
+        <v>0.06136170105122222</v>
       </c>
       <c r="R10">
-        <v>4.397780273386338</v>
+        <v>0.552255309461</v>
       </c>
       <c r="S10">
-        <v>0.01326991404872152</v>
+        <v>0.0001641154082326908</v>
       </c>
       <c r="T10">
-        <v>0.01326991404872152</v>
+        <v>0.0002373717689093009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.41332787820737</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H11">
-        <v>1.41332787820737</v>
+        <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.04522156657501004</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J11">
-        <v>0.04522156657501004</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N11">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O11">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P11">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q11">
-        <v>3.864284923183853</v>
+        <v>0.2650909357281112</v>
       </c>
       <c r="R11">
-        <v>3.864284923183853</v>
+        <v>2.385818421553</v>
       </c>
       <c r="S11">
-        <v>0.01166013888887063</v>
+        <v>0.0007090009955800992</v>
       </c>
       <c r="T11">
-        <v>0.01166013888887063</v>
+        <v>0.00102547848670421</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.41332787820737</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H12">
-        <v>1.41332787820737</v>
+        <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.04522156657501004</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J12">
-        <v>0.04522156657501004</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N12">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O12">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P12">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q12">
-        <v>2.417596547209221</v>
+        <v>6.564912922122111</v>
       </c>
       <c r="R12">
-        <v>2.417596547209221</v>
+        <v>59.084216299099</v>
       </c>
       <c r="S12">
-        <v>0.007294884326098751</v>
+        <v>0.01755823821322628</v>
       </c>
       <c r="T12">
-        <v>0.007294884326098751</v>
+        <v>0.0253957267540355</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.41332787820737</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H13">
-        <v>1.41332787820737</v>
+        <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.04522156657501004</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J13">
-        <v>0.04522156657501004</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N13">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O13">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P13">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q13">
-        <v>4.307211018547676</v>
+        <v>11.35519450636783</v>
       </c>
       <c r="R13">
-        <v>4.307211018547676</v>
+        <v>68.131167038207</v>
       </c>
       <c r="S13">
-        <v>0.01299662931131913</v>
+        <v>0.03037012256910121</v>
       </c>
       <c r="T13">
-        <v>0.01299662931131913</v>
+        <v>0.02928430992089237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.02354093570162</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H14">
-        <v>2.02354093570162</v>
+        <v>4.711429</v>
       </c>
       <c r="I14">
-        <v>0.06474625778779301</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J14">
-        <v>0.06474625778779301</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N14">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O14">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P14">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q14">
-        <v>6.296549121146398</v>
+        <v>4.887736169847167</v>
       </c>
       <c r="R14">
-        <v>6.296549121146398</v>
+        <v>29.326417019083</v>
       </c>
       <c r="S14">
-        <v>0.01899928155729065</v>
+        <v>0.01307253226533848</v>
       </c>
       <c r="T14">
-        <v>0.01899928155729065</v>
+        <v>0.01260515447173471</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.02354093570162</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H15">
-        <v>2.02354093570162</v>
+        <v>4.711429</v>
       </c>
       <c r="I15">
-        <v>0.06474625778779301</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J15">
-        <v>0.06474625778779301</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N15">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O15">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P15">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q15">
-        <v>5.532713852071767</v>
+        <v>4.733131935942444</v>
       </c>
       <c r="R15">
-        <v>5.532713852071767</v>
+        <v>42.598187423482</v>
       </c>
       <c r="S15">
-        <v>0.01669447601042381</v>
+        <v>0.01265903432562856</v>
       </c>
       <c r="T15">
-        <v>0.01669447601042381</v>
+        <v>0.01830966027453998</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.02354093570162</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H16">
-        <v>2.02354093570162</v>
+        <v>4.711429</v>
       </c>
       <c r="I16">
-        <v>0.06474625778779301</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J16">
-        <v>0.06474625778779301</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N16">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O16">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P16">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q16">
-        <v>3.461408817247543</v>
+        <v>0.02589034933922222</v>
       </c>
       <c r="R16">
-        <v>3.461408817247543</v>
+        <v>0.233013144053</v>
       </c>
       <c r="S16">
-        <v>0.01044449577672809</v>
+        <v>6.924523242187399E-05</v>
       </c>
       <c r="T16">
-        <v>0.01044449577672809</v>
+        <v>0.0001001542968178278</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.02354093570162</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H17">
-        <v>2.02354093570162</v>
+        <v>4.711429</v>
       </c>
       <c r="I17">
-        <v>0.06474625778779301</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J17">
-        <v>0.06474625778779301</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N17">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O17">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P17">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q17">
-        <v>6.166876030062619</v>
+        <v>0.1118498479521111</v>
       </c>
       <c r="R17">
-        <v>6.166876030062619</v>
+        <v>1.006648631569</v>
       </c>
       <c r="S17">
-        <v>0.01860800444335045</v>
+        <v>0.000299148868805023</v>
       </c>
       <c r="T17">
-        <v>0.01860800444335045</v>
+        <v>0.0004326802517822333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.0703025143224</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H18">
-        <v>10.0703025143224</v>
+        <v>4.711429</v>
       </c>
       <c r="I18">
-        <v>0.322214584884247</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J18">
-        <v>0.322214584884247</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N18">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O18">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P18">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q18">
-        <v>31.33524670913051</v>
+        <v>2.769934438314111</v>
       </c>
       <c r="R18">
-        <v>31.33524670913051</v>
+        <v>24.929409944827</v>
       </c>
       <c r="S18">
-        <v>0.09455134287676972</v>
+        <v>0.007408349399281441</v>
       </c>
       <c r="T18">
-        <v>0.09455134287676972</v>
+        <v>0.01071522180971733</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.0703025143224</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H19">
-        <v>10.0703025143224</v>
+        <v>4.711429</v>
       </c>
       <c r="I19">
-        <v>0.322214584884247</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J19">
-        <v>0.322214584884247</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N19">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O19">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P19">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q19">
-        <v>27.53396347587419</v>
+        <v>4.791098479151834</v>
       </c>
       <c r="R19">
-        <v>27.53396347587419</v>
+        <v>28.746590874911</v>
       </c>
       <c r="S19">
-        <v>0.08308130602990467</v>
+        <v>0.0128140691884122</v>
       </c>
       <c r="T19">
-        <v>0.08308130602990467</v>
+        <v>0.01235593213716576</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.0703025143224</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H20">
-        <v>10.0703025143224</v>
+        <v>6.173102</v>
       </c>
       <c r="I20">
-        <v>0.322214584884247</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J20">
-        <v>0.322214584884247</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N20">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O20">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P20">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q20">
-        <v>17.22595935690304</v>
+        <v>6.404106678792334</v>
       </c>
       <c r="R20">
-        <v>17.22595935690304</v>
+        <v>38.424640072754</v>
       </c>
       <c r="S20">
-        <v>0.05197781286532061</v>
+        <v>0.01712815264163495</v>
       </c>
       <c r="T20">
-        <v>0.05197781286532061</v>
+        <v>0.0165157756340538</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.0703025143224</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H21">
-        <v>10.0703025143224</v>
+        <v>6.173102</v>
       </c>
       <c r="I21">
-        <v>0.322214584884247</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J21">
-        <v>0.322214584884247</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N21">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O21">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P21">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q21">
-        <v>30.68991889186639</v>
+        <v>6.201538051412888</v>
       </c>
       <c r="R21">
-        <v>30.68991889186639</v>
+        <v>55.81384246271599</v>
       </c>
       <c r="S21">
-        <v>0.09260412311225202</v>
+        <v>0.01658637116543757</v>
       </c>
       <c r="T21">
-        <v>0.09260412311225202</v>
+        <v>0.02399004642966779</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.91271181126894</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H22">
-        <v>7.91271181126894</v>
+        <v>6.173102</v>
       </c>
       <c r="I22">
-        <v>0.2531792017122193</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J22">
-        <v>0.2531792017122193</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N22">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O22">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P22">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q22">
-        <v>24.62158176397611</v>
+        <v>0.03392256729044445</v>
       </c>
       <c r="R22">
-        <v>24.62158176397611</v>
+        <v>0.305303105614</v>
       </c>
       <c r="S22">
-        <v>0.07429345111413432</v>
+        <v>9.072786255591144E-05</v>
       </c>
       <c r="T22">
-        <v>0.07429345111413432</v>
+        <v>0.0001312261502815232</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.91271181126894</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H23">
-        <v>7.91271181126894</v>
+        <v>6.173102</v>
       </c>
       <c r="I23">
-        <v>0.2531792017122193</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J23">
-        <v>0.2531792017122193</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N23">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O23">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P23">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q23">
-        <v>21.63473417970672</v>
+        <v>0.1465501273802222</v>
       </c>
       <c r="R23">
-        <v>21.63473417970672</v>
+        <v>1.318951146422</v>
       </c>
       <c r="S23">
-        <v>0.06528090199708468</v>
+        <v>0.000391956767324314</v>
       </c>
       <c r="T23">
-        <v>0.06528090199708468</v>
+        <v>0.0005669149057828119</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.91271181126894</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H24">
-        <v>7.91271181126894</v>
+        <v>6.173102</v>
       </c>
       <c r="I24">
-        <v>0.2531792017122193</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J24">
-        <v>0.2531792017122193</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N24">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O24">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P24">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q24">
-        <v>13.53524900269363</v>
+        <v>3.629278467536222</v>
       </c>
       <c r="R24">
-        <v>13.53524900269363</v>
+        <v>32.663506207826</v>
       </c>
       <c r="S24">
-        <v>0.04084141992739562</v>
+        <v>0.009706714564392899</v>
       </c>
       <c r="T24">
-        <v>0.04084141992739562</v>
+        <v>0.01403951055699018</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.91271181126894</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H25">
-        <v>7.91271181126894</v>
+        <v>6.173102</v>
       </c>
       <c r="I25">
-        <v>0.2531792017122193</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J25">
-        <v>0.2531792017122193</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N25">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O25">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P25">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q25">
-        <v>24.11451725081537</v>
+        <v>6.277488125969668</v>
       </c>
       <c r="R25">
-        <v>24.11451725081537</v>
+        <v>37.664928755818</v>
       </c>
       <c r="S25">
-        <v>0.07276342867360466</v>
+        <v>0.01678950401993233</v>
       </c>
       <c r="T25">
-        <v>0.07276342867360466</v>
+        <v>0.01618923460117986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.26174566666667</v>
+      </c>
+      <c r="H26">
+        <v>33.785237</v>
+      </c>
+      <c r="I26">
+        <v>0.33217364888124</v>
+      </c>
+      <c r="J26">
+        <v>0.3909494738176372</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1122635</v>
+      </c>
+      <c r="N26">
+        <v>6.224527</v>
+      </c>
+      <c r="O26">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P26">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q26">
+        <v>35.04951998464984</v>
+      </c>
+      <c r="R26">
+        <v>210.297119907899</v>
+      </c>
+      <c r="S26">
+        <v>0.0937419625286951</v>
+      </c>
+      <c r="T26">
+        <v>0.09039043807073541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.26174566666667</v>
+      </c>
+      <c r="H27">
+        <v>33.785237</v>
+      </c>
+      <c r="I27">
+        <v>0.33217364888124</v>
+      </c>
+      <c r="J27">
+        <v>0.3909494738176372</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P27">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q27">
+        <v>33.94086681728289</v>
+      </c>
+      <c r="R27">
+        <v>305.467801355546</v>
+      </c>
+      <c r="S27">
+        <v>0.09077680569578704</v>
+      </c>
+      <c r="T27">
+        <v>0.1312969402202216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.26174566666667</v>
+      </c>
+      <c r="H28">
+        <v>33.785237</v>
+      </c>
+      <c r="I28">
+        <v>0.33217364888124</v>
+      </c>
+      <c r="J28">
+        <v>0.3909494738176372</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.049457</v>
+      </c>
+      <c r="O28">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P28">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q28">
+        <v>0.1856573851454445</v>
+      </c>
+      <c r="R28">
+        <v>1.670916466309</v>
+      </c>
+      <c r="S28">
+        <v>0.0004965513835596582</v>
+      </c>
+      <c r="T28">
+        <v>0.000718197526601517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.26174566666667</v>
+      </c>
+      <c r="H29">
+        <v>33.785237</v>
+      </c>
+      <c r="I29">
+        <v>0.33217364888124</v>
+      </c>
+      <c r="J29">
+        <v>0.3909494738176372</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.213661</v>
+      </c>
+      <c r="O29">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P29">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q29">
+        <v>0.8020652802952224</v>
+      </c>
+      <c r="R29">
+        <v>7.218587522657001</v>
+      </c>
+      <c r="S29">
+        <v>0.002145169847801932</v>
+      </c>
+      <c r="T29">
+        <v>0.003102711481311174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.26174566666667</v>
+      </c>
+      <c r="H30">
+        <v>33.785237</v>
+      </c>
+      <c r="I30">
+        <v>0.33217364888124</v>
+      </c>
+      <c r="J30">
+        <v>0.3909494738176372</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.291263</v>
+      </c>
+      <c r="O30">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P30">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q30">
+        <v>19.86295272048122</v>
+      </c>
+      <c r="R30">
+        <v>178.766574484331</v>
+      </c>
+      <c r="S30">
+        <v>0.05312461256097272</v>
+      </c>
+      <c r="T30">
+        <v>0.0768378995733288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.26174566666667</v>
+      </c>
+      <c r="H31">
+        <v>33.785237</v>
+      </c>
+      <c r="I31">
+        <v>0.33217364888124</v>
+      </c>
+      <c r="J31">
+        <v>0.3909494738176372</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.0507295</v>
+      </c>
+      <c r="N31">
+        <v>6.101459</v>
+      </c>
+      <c r="O31">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P31">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q31">
+        <v>34.35653972679717</v>
+      </c>
+      <c r="R31">
+        <v>206.139238360783</v>
+      </c>
+      <c r="S31">
+        <v>0.09188854686442351</v>
+      </c>
+      <c r="T31">
+        <v>0.08860328694543877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>8.133334</v>
+      </c>
+      <c r="H32">
+        <v>16.266668</v>
+      </c>
+      <c r="I32">
+        <v>0.2398987965379539</v>
+      </c>
+      <c r="J32">
+        <v>0.188231483927912</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.1122635</v>
+      </c>
+      <c r="N32">
+        <v>6.224527</v>
+      </c>
+      <c r="O32">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P32">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q32">
+        <v>25.313078541509</v>
+      </c>
+      <c r="R32">
+        <v>101.252314166036</v>
+      </c>
+      <c r="S32">
+        <v>0.06770128838178892</v>
+      </c>
+      <c r="T32">
+        <v>0.04352052485146733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>8.133334</v>
+      </c>
+      <c r="H33">
+        <v>16.266668</v>
+      </c>
+      <c r="I33">
+        <v>0.2398987965379539</v>
+      </c>
+      <c r="J33">
+        <v>0.188231483927912</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N33">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P33">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q33">
+        <v>24.51239925365733</v>
+      </c>
+      <c r="R33">
+        <v>147.074395521944</v>
+      </c>
+      <c r="S33">
+        <v>0.06555982545070839</v>
+      </c>
+      <c r="T33">
+        <v>0.06321588734091729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>8.133334</v>
+      </c>
+      <c r="H34">
+        <v>16.266668</v>
+      </c>
+      <c r="I34">
+        <v>0.2398987965379539</v>
+      </c>
+      <c r="J34">
+        <v>0.188231483927912</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.049457</v>
+      </c>
+      <c r="O34">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P34">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q34">
+        <v>0.1340834332126667</v>
+      </c>
+      <c r="R34">
+        <v>0.8045005992759999</v>
+      </c>
+      <c r="S34">
+        <v>0.0003586138748104217</v>
+      </c>
+      <c r="T34">
+        <v>0.0003457924750875077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8.133334</v>
+      </c>
+      <c r="H35">
+        <v>16.266668</v>
+      </c>
+      <c r="I35">
+        <v>0.2398987965379539</v>
+      </c>
+      <c r="J35">
+        <v>0.188231483927912</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.213661</v>
+      </c>
+      <c r="O35">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P35">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q35">
+        <v>0.5792587585913334</v>
+      </c>
+      <c r="R35">
+        <v>3.475552551548</v>
+      </c>
+      <c r="S35">
+        <v>0.001549260956100643</v>
+      </c>
+      <c r="T35">
+        <v>0.001493870756812423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>8.133334</v>
+      </c>
+      <c r="H36">
+        <v>16.266668</v>
+      </c>
+      <c r="I36">
+        <v>0.2398987965379539</v>
+      </c>
+      <c r="J36">
+        <v>0.188231483927912</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.291263</v>
+      </c>
+      <c r="O36">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P36">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q36">
+        <v>14.34520308694733</v>
+      </c>
+      <c r="R36">
+        <v>86.07121852168399</v>
+      </c>
+      <c r="S36">
+        <v>0.03836707295369748</v>
+      </c>
+      <c r="T36">
+        <v>0.0369953480621338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8.133334</v>
+      </c>
+      <c r="H37">
+        <v>16.266668</v>
+      </c>
+      <c r="I37">
+        <v>0.2398987965379539</v>
+      </c>
+      <c r="J37">
+        <v>0.188231483927912</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.0507295</v>
+      </c>
+      <c r="N37">
+        <v>6.101459</v>
+      </c>
+      <c r="O37">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P37">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q37">
+        <v>24.812601967153</v>
+      </c>
+      <c r="R37">
+        <v>99.250407868612</v>
+      </c>
+      <c r="S37">
+        <v>0.06636273492084802</v>
+      </c>
+      <c r="T37">
+        <v>0.04266006044149362</v>
       </c>
     </row>
   </sheetData>
